--- a/db/data/presupuesto-2020-retiro.xlsx
+++ b/db/data/presupuesto-2020-retiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpdarlyn/Development/Church/collect-project/db/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1A722C-523F-004E-9233-9ACFC4131B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911E7F31-DDCF-2848-BB23-39DF3CDD1B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja4" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="111">
   <si>
     <t>Saldo Unidades</t>
   </si>
@@ -603,36 +603,6 @@
   <dxfs count="8">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -668,6 +638,36 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -744,8 +744,8 @@
     <tableColumn id="1" xr3:uid="{9B7352B2-25C1-8141-B52C-608AF68E2D7F}" name="Nro"/>
     <tableColumn id="2" xr3:uid="{CA69D7B2-BFA0-C04E-8ABC-165E54E67480}" name="Ofrendador"/>
     <tableColumn id="3" xr3:uid="{6904E6C8-F664-384D-8264-6D67EB8FD675}" name="Número de teléfono"/>
-    <tableColumn id="4" xr3:uid="{012F2602-C737-A94D-953E-EFEB6B38B671}" name="Item" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B77D0EDC-7620-8E4D-859C-6CFFBDA22AD7}" name="Monto" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{012F2602-C737-A94D-953E-EFEB6B38B671}" name="Item" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{B77D0EDC-7620-8E4D-859C-6CFFBDA22AD7}" name="Monto" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{261E1060-1998-7942-82F5-E8CBA1F8DC3D}" name="Pagado"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3132,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:F31"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3291,6 +3291,15 @@
       <c r="C10">
         <v>69137393</v>
       </c>
+      <c r="D10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="25">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -3302,6 +3311,15 @@
       <c r="C11">
         <v>65069978</v>
       </c>
+      <c r="D11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="25">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -3310,6 +3328,15 @@
       <c r="B12" t="s">
         <v>34</v>
       </c>
+      <c r="D12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="25">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -3318,6 +3345,15 @@
       <c r="B13" s="24" t="s">
         <v>39</v>
       </c>
+      <c r="D13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="25">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
@@ -3326,6 +3362,15 @@
       <c r="B14" s="24" t="s">
         <v>41</v>
       </c>
+      <c r="D14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="25">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -3334,6 +3379,15 @@
       <c r="B15" s="24" t="s">
         <v>85</v>
       </c>
+      <c r="D15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="25">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
@@ -3345,8 +3399,17 @@
       <c r="C16">
         <v>75621177</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="25">
+        <v>160</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3356,8 +3419,17 @@
       <c r="C17">
         <v>75686261</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="25">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3367,122 +3439,248 @@
       <c r="C18">
         <v>77029581</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="25">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="25">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="25">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="25">
+        <v>200</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="25">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="25">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="25">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="25">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="25">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="25">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="25">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="25">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="25">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>100</v>
       </c>
+      <c r="D31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="25">
+        <v>250</v>
+      </c>
+      <c r="F31" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:F4">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:F67">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/db/data/presupuesto-2020-retiro.xlsx
+++ b/db/data/presupuesto-2020-retiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpdarlyn/Development/Church/collect-project/db/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911E7F31-DDCF-2848-BB23-39DF3CDD1B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FB7355-88CD-D841-87A5-6B49F8B160D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="117">
   <si>
     <t>Saldo Unidades</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Sandra Galean</t>
   </si>
   <si>
-    <t>Mariel</t>
-  </si>
-  <si>
     <t>Erlinda</t>
   </si>
   <si>
@@ -364,6 +361,27 @@
   </si>
   <si>
     <t>total_amount</t>
+  </si>
+  <si>
+    <t>Rolf Llampa</t>
+  </si>
+  <si>
+    <t>Maria René Arias</t>
+  </si>
+  <si>
+    <t>Verónica Osco</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Gilberto Jimenez</t>
+  </si>
+  <si>
+    <t>Mariel V.</t>
+  </si>
+  <si>
+    <t>Jose Carlos Justiniano</t>
   </si>
 </sst>
 </file>
@@ -600,7 +618,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -641,26 +699,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -696,9 +734,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Hoja4-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -713,7 +751,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:N43" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:N44" headerRowCount="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N43">
     <sortCondition descending="1" ref="E3:E43"/>
   </sortState>
@@ -738,14 +776,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18DAF776-A1D7-7345-B80B-A96B89F03AE2}" name="Table2" displayName="Table2" ref="A3:F67" totalsRowShown="0">
-  <autoFilter ref="A3:F67" xr:uid="{29CA02CE-1A5D-4A40-9A8E-CE04F7EC4CAA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18DAF776-A1D7-7345-B80B-A96B89F03AE2}" name="Table2" displayName="Table2" ref="A3:F68" totalsRowShown="0">
+  <autoFilter ref="A3:F68" xr:uid="{29CA02CE-1A5D-4A40-9A8E-CE04F7EC4CAA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9B7352B2-25C1-8141-B52C-608AF68E2D7F}" name="Nro"/>
     <tableColumn id="2" xr3:uid="{CA69D7B2-BFA0-C04E-8ABC-165E54E67480}" name="Ofrendador"/>
     <tableColumn id="3" xr3:uid="{6904E6C8-F664-384D-8264-6D67EB8FD675}" name="Número de teléfono"/>
-    <tableColumn id="4" xr3:uid="{012F2602-C737-A94D-953E-EFEB6B38B671}" name="Item" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{B77D0EDC-7620-8E4D-859C-6CFFBDA22AD7}" name="Monto" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{012F2602-C737-A94D-953E-EFEB6B38B671}" name="Item" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{B77D0EDC-7620-8E4D-859C-6CFFBDA22AD7}" name="Monto" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{261E1060-1998-7942-82F5-E8CBA1F8DC3D}" name="Pagado"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -953,7 +991,7 @@
   <dimension ref="A1:P244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -970,19 +1008,19 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>0</v>
@@ -3130,10 +3168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:F31"/>
+  <dimension ref="A3:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3146,7 +3184,7 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -3158,10 +3196,10 @@
         <v>77</v>
       </c>
       <c r="E3" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>101</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3181,7 +3219,7 @@
         <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3201,7 +3239,7 @@
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3218,10 +3256,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="25">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3238,7 +3276,7 @@
         <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3255,10 +3293,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="25">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3298,7 +3336,7 @@
         <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3318,7 +3356,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3335,7 +3373,7 @@
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3352,7 +3390,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3369,7 +3407,7 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3386,7 +3424,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3406,7 +3444,7 @@
         <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -3426,7 +3464,7 @@
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -3446,7 +3484,7 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -3463,7 +3501,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -3480,7 +3518,7 @@
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -3497,7 +3535,7 @@
         <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -3514,7 +3552,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -3531,7 +3569,7 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -3548,7 +3586,7 @@
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -3565,7 +3603,7 @@
         <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -3582,7 +3620,7 @@
         <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -3599,7 +3637,7 @@
         <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -3616,7 +3654,7 @@
         <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -3633,7 +3671,7 @@
         <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -3641,7 +3679,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>29</v>
@@ -3650,7 +3688,7 @@
         <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -3658,7 +3696,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>20</v>
@@ -3667,20 +3705,190 @@
         <v>250</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="25">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="25">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="25">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="25">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="25">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="25">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="25">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="25">
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="25">
+        <v>280</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="25">
+        <v>50</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:F4">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:F67">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="A4:F68">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3695,7 +3903,7 @@
           <x14:formula1>
             <xm:f>Hoja4!$C$2:$C$43</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D31</xm:sqref>
+          <xm:sqref>D4:D41</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/db/data/presupuesto-2020-retiro.xlsx
+++ b/db/data/presupuesto-2020-retiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpdarlyn/Development/Church/collect-project/db/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FB7355-88CD-D841-87A5-6B49F8B160D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DF4FFE-4595-A54C-897B-9C30F72D21EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
   <si>
     <t>Saldo Unidades</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>Jose Carlos Justiniano</t>
+  </si>
+  <si>
+    <t>DARLYN</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -776,15 +782,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18DAF776-A1D7-7345-B80B-A96B89F03AE2}" name="Table2" displayName="Table2" ref="A3:F68" totalsRowShown="0">
-  <autoFilter ref="A3:F68" xr:uid="{29CA02CE-1A5D-4A40-9A8E-CE04F7EC4CAA}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18DAF776-A1D7-7345-B80B-A96B89F03AE2}" name="Table2" displayName="Table2" ref="A3:G68" totalsRowShown="0">
+  <autoFilter ref="A3:G68" xr:uid="{29CA02CE-1A5D-4A40-9A8E-CE04F7EC4CAA}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="SI"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9B7352B2-25C1-8141-B52C-608AF68E2D7F}" name="Nro"/>
     <tableColumn id="2" xr3:uid="{CA69D7B2-BFA0-C04E-8ABC-165E54E67480}" name="Ofrendador"/>
     <tableColumn id="3" xr3:uid="{6904E6C8-F664-384D-8264-6D67EB8FD675}" name="Número de teléfono"/>
     <tableColumn id="4" xr3:uid="{012F2602-C737-A94D-953E-EFEB6B38B671}" name="Item" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{B77D0EDC-7620-8E4D-859C-6CFFBDA22AD7}" name="Monto" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{261E1060-1998-7942-82F5-E8CBA1F8DC3D}" name="Pagado"/>
+    <tableColumn id="7" xr3:uid="{A002FBAC-8D6D-CA48-8E5F-0C6C74A9809D}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3168,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:F41"/>
+  <dimension ref="A3:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3182,7 +3195,7 @@
     <col min="5" max="5" width="15" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -3201,8 +3214,11 @@
       <c r="F3" s="22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3222,7 +3238,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3242,7 +3258,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3262,7 +3278,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3278,8 +3294,11 @@
       <c r="F7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3299,7 +3318,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3319,7 +3338,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3339,7 +3358,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3359,7 +3378,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3376,7 +3395,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3393,7 +3412,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3410,7 +3429,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3427,7 +3446,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3447,7 +3466,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3467,7 +3486,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3487,7 +3506,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3504,7 +3523,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3521,7 +3540,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3538,7 +3557,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3555,7 +3574,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3571,8 +3590,11 @@
       <c r="F23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3588,8 +3610,11 @@
       <c r="F24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3606,7 +3631,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3623,7 +3648,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3639,8 +3664,11 @@
       <c r="F27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3657,7 +3685,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -3674,7 +3702,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3691,7 +3719,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3708,7 +3736,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3759,7 +3787,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3776,7 +3804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3793,7 +3821,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3810,7 +3838,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -3827,7 +3855,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -3844,7 +3872,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -3861,7 +3889,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -3878,6 +3906,33 @@
         <v>102</v>
       </c>
     </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="49" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="52" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="53" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="54" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="55" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="56" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="57" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="58" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="59" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="60" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="61" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="62" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="63" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="64" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="65" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="66" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="67" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="68" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="A4:F4">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
